--- a/data/data_laymanCWM.xlsx
+++ b/data/data_laymanCWM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/LTER/Manuscript 2019 Stable Isotopes/SIA_Plots 2017-2019/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CAB255F2-68E9-460B-AF6E-86063ED1F201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658F437A-C73B-4C9A-8061-F75753A52495}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CAB255F2-68E9-460B-AF6E-86063ED1F201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F7E52AD-8F1A-4307-9819-52F16C10AFD4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E345331-855D-4463-A1AB-F0A05CE9D379}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>stream</t>
   </si>
   <si>
-    <t>period</t>
-  </si>
-  <si>
     <t>layman</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>18mopost</t>
+  </si>
+  <si>
+    <t>sampling</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,13 +448,13 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -504,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -574,7 +574,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -588,7 +588,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -602,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -630,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -658,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -672,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -686,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -700,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -756,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -770,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -840,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -854,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -882,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -924,7 +924,7 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -938,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1008,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -1022,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1036,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1092,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -1106,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1120,7 +1120,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
